--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H2">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I2">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J2">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.378434333333334</v>
+        <v>13.788265</v>
       </c>
       <c r="N2">
-        <v>16.135303</v>
+        <v>41.364795</v>
       </c>
       <c r="O2">
-        <v>0.5423901270513667</v>
+        <v>0.7604887294515349</v>
       </c>
       <c r="P2">
-        <v>0.5423901270513668</v>
+        <v>0.760488729451535</v>
       </c>
       <c r="Q2">
-        <v>2.215805583835222</v>
+        <v>12.60598102539834</v>
       </c>
       <c r="R2">
-        <v>19.942250254517</v>
+        <v>113.453829228585</v>
       </c>
       <c r="S2">
-        <v>0.03440828035453154</v>
+        <v>0.08942091662411834</v>
       </c>
       <c r="T2">
-        <v>0.03440828035453154</v>
+        <v>0.08942091662411834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H3">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I3">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J3">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.356958</v>
       </c>
       <c r="O3">
-        <v>0.2136898983105679</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="P3">
-        <v>0.213689898310568</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="Q3">
-        <v>0.8729791459513333</v>
+        <v>1.937292132772667</v>
       </c>
       <c r="R3">
-        <v>7.856812313561999</v>
+        <v>17.435629194954</v>
       </c>
       <c r="S3">
-        <v>0.01355611314308644</v>
+        <v>0.01374224171305628</v>
       </c>
       <c r="T3">
-        <v>0.01355611314308644</v>
+        <v>0.01374224171305628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H4">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I4">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J4">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.032857333333334</v>
+        <v>1.925545</v>
       </c>
       <c r="N4">
-        <v>6.098572000000001</v>
+        <v>5.776635</v>
       </c>
       <c r="O4">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="P4">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="Q4">
-        <v>0.8374958865675557</v>
+        <v>1.760437860278333</v>
       </c>
       <c r="R4">
-        <v>7.537462979108001</v>
+        <v>15.843940742505</v>
       </c>
       <c r="S4">
-        <v>0.0130051090542456</v>
+        <v>0.01248772045656128</v>
       </c>
       <c r="T4">
-        <v>0.0130051090542456</v>
+        <v>0.01248772045656128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.9142543333333334</v>
+      </c>
+      <c r="H5">
+        <v>2.742763</v>
+      </c>
+      <c r="I5">
+        <v>0.1175834869881751</v>
+      </c>
+      <c r="J5">
+        <v>0.1175834869881751</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.4119796666666666</v>
-      </c>
-      <c r="H5">
-        <v>1.235939</v>
-      </c>
-      <c r="I5">
-        <v>0.0634382497734383</v>
-      </c>
-      <c r="J5">
-        <v>0.0634382497734383</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.3858953333333333</v>
+        <v>0.2979986666666667</v>
       </c>
       <c r="N5">
-        <v>1.157686</v>
+        <v>0.893996</v>
       </c>
       <c r="O5">
-        <v>0.03891575241106959</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="P5">
-        <v>0.03891575241106961</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="Q5">
-        <v>0.1589810307948889</v>
+        <v>0.2724465723275556</v>
       </c>
       <c r="R5">
-        <v>1.430829277154</v>
+        <v>2.452019150948</v>
       </c>
       <c r="S5">
-        <v>0.002468747221574717</v>
+        <v>0.001932608194439143</v>
       </c>
       <c r="T5">
-        <v>0.002468747221574718</v>
+        <v>0.001932608194439143</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14.478153</v>
       </c>
       <c r="I6">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J6">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.378434333333334</v>
+        <v>13.788265</v>
       </c>
       <c r="N6">
-        <v>16.135303</v>
+        <v>41.364795</v>
       </c>
       <c r="O6">
-        <v>0.5423901270513667</v>
+        <v>0.7604887294515349</v>
       </c>
       <c r="P6">
-        <v>0.5423901270513668</v>
+        <v>0.760488729451535</v>
       </c>
       <c r="Q6">
-        <v>25.95659839281767</v>
+        <v>66.542870091515</v>
       </c>
       <c r="R6">
-        <v>233.609385535359</v>
+        <v>598.8858308236349</v>
       </c>
       <c r="S6">
-        <v>0.4030687173394494</v>
+        <v>0.4720239088409129</v>
       </c>
       <c r="T6">
-        <v>0.4030687173394495</v>
+        <v>0.4720239088409129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14.478153</v>
       </c>
       <c r="I7">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J7">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.356958</v>
       </c>
       <c r="O7">
-        <v>0.2136898983105679</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="P7">
-        <v>0.213689898310568</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="Q7">
         <v>10.226334504286</v>
@@ -883,10 +883,10 @@
         <v>92.03701053857399</v>
       </c>
       <c r="S7">
-        <v>0.1588002969166896</v>
+        <v>0.07254082036421337</v>
       </c>
       <c r="T7">
-        <v>0.1588002969166896</v>
+        <v>0.07254082036421337</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14.478153</v>
       </c>
       <c r="I8">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J8">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.032857333333334</v>
+        <v>1.925545</v>
       </c>
       <c r="N8">
-        <v>6.098572000000001</v>
+        <v>5.776635</v>
       </c>
       <c r="O8">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="P8">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="Q8">
-        <v>9.810673166390668</v>
+        <v>9.292778372794999</v>
       </c>
       <c r="R8">
-        <v>88.296058497516</v>
+        <v>83.63500535515499</v>
       </c>
       <c r="S8">
-        <v>0.1523456729410214</v>
+        <v>0.06591861104708065</v>
       </c>
       <c r="T8">
-        <v>0.1523456729410214</v>
+        <v>0.06591861104708066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>14.478153</v>
       </c>
       <c r="I9">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J9">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3858953333333333</v>
+        <v>0.2979986666666667</v>
       </c>
       <c r="N9">
-        <v>1.157686</v>
+        <v>0.893996</v>
       </c>
       <c r="O9">
-        <v>0.03891575241106959</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="P9">
-        <v>0.03891575241106961</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="Q9">
-        <v>1.862350559328666</v>
+        <v>1.438156763265333</v>
       </c>
       <c r="R9">
-        <v>16.761155033958</v>
+        <v>12.943410869388</v>
       </c>
       <c r="S9">
-        <v>0.02891963114060132</v>
+        <v>0.01020160951862908</v>
       </c>
       <c r="T9">
-        <v>0.02891963114060133</v>
+        <v>0.01020160951862908</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H10">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I10">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J10">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.378434333333334</v>
+        <v>13.788265</v>
       </c>
       <c r="N10">
-        <v>16.135303</v>
+        <v>41.364795</v>
       </c>
       <c r="O10">
-        <v>0.5423901270513667</v>
+        <v>0.7604887294515349</v>
       </c>
       <c r="P10">
-        <v>0.5423901270513668</v>
+        <v>0.760488729451535</v>
       </c>
       <c r="Q10">
-        <v>6.738504122563556</v>
+        <v>27.385493588425</v>
       </c>
       <c r="R10">
-        <v>60.64653710307201</v>
+        <v>246.469442295825</v>
       </c>
       <c r="S10">
-        <v>0.1046392971977345</v>
+        <v>0.1942598464924707</v>
       </c>
       <c r="T10">
-        <v>0.1046392971977345</v>
+        <v>0.1942598464924707</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H11">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I11">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J11">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.356958</v>
       </c>
       <c r="O11">
-        <v>0.2136898983105679</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="P11">
-        <v>0.213689898310568</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="Q11">
-        <v>2.654823878421334</v>
+        <v>4.20861344897</v>
       </c>
       <c r="R11">
-        <v>23.893414905792</v>
+        <v>37.87752104073</v>
       </c>
       <c r="S11">
-        <v>0.04122560434319181</v>
+        <v>0.02985392977867009</v>
       </c>
       <c r="T11">
-        <v>0.04122560434319181</v>
+        <v>0.02985392977867009</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H12">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I12">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J12">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.032857333333334</v>
+        <v>1.925545</v>
       </c>
       <c r="N12">
-        <v>6.098572000000001</v>
+        <v>5.776635</v>
       </c>
       <c r="O12">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="P12">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="Q12">
-        <v>2.54691545388089</v>
+        <v>3.824411574025</v>
       </c>
       <c r="R12">
-        <v>22.92223908492801</v>
+        <v>34.419704166225</v>
       </c>
       <c r="S12">
-        <v>0.03954994139185252</v>
+        <v>0.02712858188570821</v>
       </c>
       <c r="T12">
-        <v>0.03954994139185252</v>
+        <v>0.02712858188570821</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H13">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I13">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J13">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3858953333333333</v>
+        <v>0.2979986666666667</v>
       </c>
       <c r="N13">
-        <v>1.157686</v>
+        <v>0.893996</v>
       </c>
       <c r="O13">
-        <v>0.03891575241106959</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="P13">
-        <v>0.03891575241106961</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="Q13">
-        <v>0.4834784871182222</v>
+        <v>0.5918685618066667</v>
       </c>
       <c r="R13">
-        <v>4.351306384064</v>
+        <v>5.326817056259999</v>
       </c>
       <c r="S13">
-        <v>0.007507726964635027</v>
+        <v>0.004198437964575501</v>
       </c>
       <c r="T13">
-        <v>0.007507726964635029</v>
+        <v>0.004198437964575501</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H14">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I14">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J14">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.378434333333334</v>
+        <v>13.788265</v>
       </c>
       <c r="N14">
-        <v>16.135303</v>
+        <v>41.364795</v>
       </c>
       <c r="O14">
-        <v>0.5423901270513667</v>
+        <v>0.7604887294515349</v>
       </c>
       <c r="P14">
-        <v>0.5423901270513668</v>
+        <v>0.760488729451535</v>
       </c>
       <c r="Q14">
-        <v>0.01763409336755556</v>
+        <v>0.6744254059450001</v>
       </c>
       <c r="R14">
-        <v>0.158706840308</v>
+        <v>6.069828653505001</v>
       </c>
       <c r="S14">
-        <v>0.0002738321596512225</v>
+        <v>0.004784057494033025</v>
       </c>
       <c r="T14">
-        <v>0.0002738321596512225</v>
+        <v>0.004784057494033025</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H15">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I15">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J15">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.356958</v>
       </c>
       <c r="O15">
-        <v>0.2136898983105679</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="P15">
-        <v>0.213689898310568</v>
+        <v>0.1168722076973129</v>
       </c>
       <c r="Q15">
-        <v>0.006947448765333334</v>
+        <v>0.103645962218</v>
       </c>
       <c r="R15">
-        <v>0.062527038888</v>
+        <v>0.9328136599620001</v>
       </c>
       <c r="S15">
-        <v>0.000107883907600131</v>
+        <v>0.0007352158413731578</v>
       </c>
       <c r="T15">
-        <v>0.000107883907600131</v>
+        <v>0.0007352158413731578</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H16">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I16">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J16">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.032857333333334</v>
+        <v>1.925545</v>
       </c>
       <c r="N16">
-        <v>6.098572000000001</v>
+        <v>5.776635</v>
       </c>
       <c r="O16">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="P16">
-        <v>0.2050042222269956</v>
+        <v>0.1062030118040055</v>
       </c>
       <c r="Q16">
-        <v>0.006665061576888892</v>
+        <v>0.094184182585</v>
       </c>
       <c r="R16">
-        <v>0.05998555419200002</v>
+        <v>0.847657643265</v>
       </c>
       <c r="S16">
-        <v>0.0001034988398760454</v>
+        <v>0.0006680984146553478</v>
       </c>
       <c r="T16">
-        <v>0.0001034988398760454</v>
+        <v>0.0006680984146553479</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04891300000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.146739</v>
+      </c>
+      <c r="I17">
+        <v>0.006290767119564404</v>
+      </c>
+      <c r="J17">
+        <v>0.006290767119564403</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.003278666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.009836000000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.0005048619913859335</v>
-      </c>
-      <c r="J17">
-        <v>0.0005048619913859335</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
-        <v>0.3858953333333333</v>
+        <v>0.2979986666666667</v>
       </c>
       <c r="N17">
-        <v>1.157686</v>
+        <v>0.893996</v>
       </c>
       <c r="O17">
-        <v>0.03891575241106959</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="P17">
-        <v>0.03891575241106961</v>
+        <v>0.0164360510471466</v>
       </c>
       <c r="Q17">
-        <v>0.001265222166222222</v>
+        <v>0.01457600878266667</v>
       </c>
       <c r="R17">
-        <v>0.011386999496</v>
+        <v>0.131184079044</v>
       </c>
       <c r="S17">
-        <v>1.964708425853454E-05</v>
+        <v>0.0001033953695028719</v>
       </c>
       <c r="T17">
-        <v>1.964708425853455E-05</v>
+        <v>0.0001033953695028719</v>
       </c>
     </row>
   </sheetData>
